--- a/biology/Botanique/Édit_des_pommes_de_terre/Édit_des_pommes_de_terre.xlsx
+++ b/biology/Botanique/Édit_des_pommes_de_terre/Édit_des_pommes_de_terre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89dit_des_pommes_de_terre</t>
+          <t>Édit_des_pommes_de_terre</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L’édit des pommes de terre est un édit royal du 24 mars 1756, dit Kartoffelbefehl[1], dans lequel le roi de Prusse, Frédéric II le Grand, ordonne à tous les officiers de contraindre ses sujets à cultiver la pomme de terre.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’édit des pommes de terre est un édit royal du 24 mars 1756, dit Kartoffelbefehl, dans lequel le roi de Prusse, Frédéric II le Grand, ordonne à tous les officiers de contraindre ses sujets à cultiver la pomme de terre.
 La pomme de terre apparaît en Allemagne en 1565 depuis l'Espagne où les conquistadors espagnols l'ont ramenée de la Cordillère des Andes. Comme partout en Europe, elle est d'abord cultivée comme fleur ornementale plutôt que pour ses qualités nutritives, jusqu'au XVIIIe siècle.
 Pour nourrir une population qui croît de plus en plus, Frédéric II de Prusse oblige à cultiver la pomme de terre. La population est réticente et Frédéric publie cet édit pour la contraindre à son exploitation.
 « Vous devez faire comprendre aux nobles et aux sujets le profit des plantations pour cette terre de plantes, et aussi à conseiller, qu'ils entreprennent dès ce printemps la plantation de pommes de terre comme un aliment très nourrissant.
